--- a/output.xlsx
+++ b/output.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAI\!Magistrature\Dissertaton\Проект диплома\Gerbrer description\gerber2gcode\python_system_equation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,25 +74,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,9 +122,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,10 +156,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,10 +190,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,4120 +365,5136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B514"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.848544614345998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.441641127674981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.1564611869002501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.026714684030173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.1352162095681368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.707736129430533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.029412012081329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.282296713016175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.0340730529719364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.176444406059013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.7482527632266569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.870352802800739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.8132211008081471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.998906853883082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.155851394084066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.972446801747496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.2858487507997394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.329671104303169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.214218836937893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.757333223271867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.7957677422066256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.425897626321062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.23367629783609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.793245853791678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.1859202590976952</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.481038616201711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.024605348717972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.068508907218072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.4548096216427462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.869141848764266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.795850564448535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.944678845711413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.4136575125644866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.277593589439371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.6025636700776769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.687648042236749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.1548138803490664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.465891092682147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.41458919064045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.516425423316404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.8498197287344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.613789362539119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.104258081815122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.940583710458339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.6723927405842711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.608270124941006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.7904718765104102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.83345472572381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.017445158780895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.485687307947268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.6318083081130961</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.953749046099684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.5935311882694461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.213773177880021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.6226134927336768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.637942516911541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.7131193781149512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.710932934052362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.4846165128798496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.87497434947741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.505825010824152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.593721161725293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.4124339569441129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.115228013911605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.2168016774952459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.927015251692143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.7342265516012749</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.626992254003874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.9834684078232621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.320057806453027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.8530743262842666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.045771894681446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.5946922708670108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.452937704100389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.4365766242411402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.571351762648554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.7322159082595832</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.07086066776431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.407024458697725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.834319943491026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.248444720565359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.713774720042712</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.0448103368601549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.547373680065611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.16731987009622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.620078408044982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.9204995941452019</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.196583558716673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.5319657955642079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.776704491639285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.3893653103802022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.793916860494361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.5093032395206549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.88961565672545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.30909653649696</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.791745768641714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.787477053230941</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.032090195846764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.0453139248675511</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.176075841794341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.3338923596843326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.649291507989428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.1138501119284789</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.343713263938808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.2236806468921486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.304970856687121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.9138319988430919</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.350176173051405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.2439862655921168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.116091694007191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.6629543835837448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.802784810922301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.2597146483339992</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.030499684296397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.3352366504764259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.658832108208329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.8003031925076449</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.295389495643796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.446881218490419</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.376890789199159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.8831933439035531</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.825769084837535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.6325632110962989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.309849808793531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.9374744966608137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.937940973077756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.0939926438197221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.465025246442673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.8996953611127601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.510757611581909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.7182782067716551</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.125616967388045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.8696339013941421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.302728324506408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.7374683080201789</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.368855967578511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.1269874141596139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.449328117867508</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.8150827038919251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.246476609848473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.202976419050378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.508914452940478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.6992507987112102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.385144967684887</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.7656585568120908</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.165143039502969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.7137644590381871</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.109927426766331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.401644999300153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.578632068465907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.1403986702158919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.777238949287985</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.6505872639983852</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.290649822995674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.7962260209694558</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.334302911777185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.4204930893744594</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.642892912503002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.7332071004253198</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.525286346421584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.114645464967901</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.478203808350299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.8075449653001361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.974681367062077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.3537947975415601</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.925978194427685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.5943769230077161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.996332743271352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.237320001338754</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.922765500860089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.6597743331612889</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.355780342767424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.0012689709329106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.706566551439144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.259708380897693</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.355726607407755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.7726534395170739</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.25878209438853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.698399302471695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.627758764355777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.8146317235096849</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.245638133341539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.217752701764137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.503758511223481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.42393940910855</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.024280040201743</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.6236514732973371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.061609943693255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.2406050442946219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.891318867358933</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.2354543872511758</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.977124703401888</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.8155481189529397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.735676680236445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.332447954220823</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.363803377745238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>3.7939805374328701</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.6639185090927</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>3.3149408234397328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.911878096084726</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.289580903865807</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.083372233111541</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.5531666448906098</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.786381412530319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.7688895102488473</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.342050168296923</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4.3215480615287811</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.853309988926189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4.1624755444123398</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.780819949199381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4.4353678460331976</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.447525637548672</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.7642979172257449</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.755371701555296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>4.1981930452293978</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.244093632347699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4.9494380305052079</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.268220036453677</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3.1346304878468998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.943666515664423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3.6702814051261989</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.836186042025499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.3041097504059089</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.089732742215289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>4.4869580192904692</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.139860279716165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.4972379524827051</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.702963073877233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4.1127734814560917</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.713746771708319</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.558047579495945</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.963453692819487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>3.0337362750912589</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.920951786426247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>3.37521073350907</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.812384758941928</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.59123162893296</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.796440996714805</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4.2389438698642543</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.741254728334287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.9725504370612299</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.353956069001552</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.3922451153053812</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.500726502825623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4.1086772836483316</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.173878192826272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3.0793409566075312</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.196637910414468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3.699917470797089</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.011738956011653</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.265110129611859</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.02325305509466</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3.076940758406665</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.071288054700128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4.3961790096047126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.234737430680519</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.2584284896857501</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.139271305763867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>4.6397953233315246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.776380255760683</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>3.0551418589044581</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.109804805045451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>3.515427244116109</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.777299334249692</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>3.7479529781225271</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.361215657505541</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.1641767447935001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.56742051045443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.8850895563437322</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.771564083701511</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>4.664725539454242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.910718185206923</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4.2605429137474591</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.288406840156314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>3.207720054787671</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.124758792049041</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.180884098314209</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.588804509978141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.967047378616652</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.557364996264408</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.200266301776876</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.167350879781128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.8491571742782871</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.736384738960728</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3.8382641777384201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.571995393933673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3.2224307254963782</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.084509275125428</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3.1088815872787041</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.425135503071419</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>4.1262814864690256</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.892419008264383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2.8952110419093922</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.084380620761746</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.481029771665259</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.901050851916499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>3.8931753407282552</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.87118989071141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>4.1279396983197234</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.230613813213902</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.2726852293297859</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.215315243196651</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3.7136939826975111</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.447902456826107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.394414539602755</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.905744011448533</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>3.7286131548194512</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.623922718178163</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2.857956848806698</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.796987925444824</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>4.5136954008129564</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.45905284282325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.509275840117585</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.84478971026801</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>3.3316447212591611</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.75121860659581</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>4.2948403854399526</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.31591445888799</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.486058876146894</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.345116025670904</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>4.5833548326874078</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.581063767463301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2.815777671246837</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.817345300067836</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>3.3320152767339941</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.485511549411678</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>4.418387615795023</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.366261140108157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2.1141055704204841</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.0164366143931</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3.058282179477402</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.796792004737399</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.835523791883211</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.369602801213449</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3.3524522689745622</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.782570464113897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3.0186504342883511</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.773417134781321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>4.878452981291165</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.294384051859563</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.254708287941543</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.107788752551548</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>4.6103541312236027</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.417802533211447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>4.491130471637053</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.657370500976992</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.6569206791174129</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.270715071759799</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2.2678655411812132</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.070235928636383</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>2.0778690867583371</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.159664302503451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4.2577378822718144</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.179257102480478</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.1710093151540071</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.612793416865553</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>2.1001007799433071</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.263135674290885</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>4.9654467453673501</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.821353329278637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.7617397874199601</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.071534798814469</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.978293321590558</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.596156585241648</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.2192945963049611</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.025367788383228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>4.1064849071113887</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.55514818688418</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2.882388052288575</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.462706622702367</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3.9902291510889212</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.939165496168075</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.41508701168955</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.618946333739045</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>4.2585069642098787</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.453163984050797</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3.6331015579716182</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.578933050655408</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3.683658334065866</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.317581949946854</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.640150494242018</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.124831054376751</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.088460816963057</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.023729700825736</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>2.2614849993225699</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.836434053444584</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.8888804616465129</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.034120460012753</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>2.162355396474243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.833435414746702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.2025483057450761</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.864021957252062</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3.2714821303933341</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.39433611014742</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>2.8980309883940021</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.242376480491089</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.4836053087884591</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.257555309255462</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.4545130883679609</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.543315423341848</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>4.0119266855279392</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.810360746728351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.1493847803832411</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.486632520803592</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3.626855214998328</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.445474703201961</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.73087303810214</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.18225591841341</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>4.7834985647287489</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.044549300630115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3.8118818881465728</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.344828758777283</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>4.5932293901050878</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.397293033781443</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>2.6801047654765449</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.366849877863832</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>3.3020380323592828</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.712524092153314</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.7988696571048119</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.626391105986944</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2.136922270798689</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.113114830215255</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>2.8262814395212721</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.371620762643094</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3.9092960623869581</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.944051523385019</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>3.7383109235575218</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.575035550788542</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>4.598115001815744</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.303572300593743</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.8783703421047011</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.579506733766905</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>4.5759305714099314</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.537969015250219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3.2403625113195091</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.379059889064548</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>4.2508351090221392</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.3998836999462</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.9339867152014261</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.16937582373147</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>3.9107970403573611</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.876503524033121</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>4.3275518516582174</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.210094172846329</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>4.1236650461683393</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.411142259106576</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>2.7047844133165402</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.413179535632079</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>4.920946366757077</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.496250477581672</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.1144423965596479</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.189600099742675</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.81711188033302</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.291592381604167</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.949533806279097</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.818188291155899</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3.4335457658534918</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.727568679938363</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4.7367194599291782</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.136051232171035</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.0190542604508961</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.20149411417732</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>2.6806139048504392</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.992338255710328</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>4.5585822699921472</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.542984786790983</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>2.7232211946426128</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.673431696955736</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4.5569706048090346</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.641730670065631</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>4.7063959061976153</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.194389871556675</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3.7710582560671262</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.888297352361576</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>3.418160735588843</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.521977538446365</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>2.0929893555597481</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.342794353516665</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>2.935552086173745</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.854459761130255</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1.8683390384543059</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.423683759475903</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>4.4104311381149301</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.731312361465747</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>4.4810759039356949</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.296941192866963</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>4.1355546443243911</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.617692745177084</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>3.742915350481383</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.943929416844634</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>2.2128214340317052</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.501487362306912</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>4.9862085111030714</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.467023737838197</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>4.0817594559533887</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.698736396702276</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250">
-        <v>3.0015854126932222</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.670736841691425</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>3.0355371363503361</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.52292620209504</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.248077697073265</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.296478853862971</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.9842098222925331</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.907556728408929</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>3.5844829633145481</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.660980066630483</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>3.66248697845705</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.633779387917554</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.882629927524627</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.350273835734837</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>3.1984120237966689</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.610723087307558</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258">
-        <v>3.244867577205047</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.392827179779511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259">
-        <v>3.0116467933658049</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.888708523656163</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260">
-        <v>2.353265873018191</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.861261603541223</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.45379259185063</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.633935653522872</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.184851990567489</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.440395407064446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263">
-        <v>2.002231570614144</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.84698487275636</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.005836387145147</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.967985522653375</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265">
-        <v>4.925853827153988</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.273066614989137</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266">
-        <v>2.8141496759738769</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.406596746392658</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267">
-        <v>4.927066687342097</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.820906469940781</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268">
-        <v>3.552666705218904</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.453360968365566</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269">
-        <v>2.4401023513704798</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.511864908770673</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1.0843216529385351</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.093790942629374</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271">
-        <v>3.0150413102799818</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.857349698415751</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272">
-        <v>3.7391439714679162</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.725289189374441</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1.736625486034443</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.271408522807704</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274">
-        <v>4.6337713932268363</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.406416009712928</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1.0434958447602209</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.495419139058146</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>2.0987581034355549</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.20251971790869</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1.7408550560015641</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.852230698270402</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1.831898361262605</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.730694883680738</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279">
-        <v>4.0296630556150879</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.21926006980195</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280">
-        <v>4.6488158110872249</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.502583342508291</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281">
-        <v>2.8538036780751379</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.352624740117868</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>2.7336180797810048</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.689826823472321</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>2.5037921914635182</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.252625844833536</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284">
-        <v>2.79889405167029</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.463194559878307</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4.9033506874545019</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.057466266858472</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286">
-        <v>4.6887904339526116</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.966428159079536</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287">
-        <v>4.4117581955310783</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.868083767396296</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288">
-        <v>2.4679003826042272</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.239593446429915</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.449193586430797</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.012659413581042</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>3.232153506225921</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.793351769254485</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>2.6888013230326848</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.368368608977707</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292">
-        <v>3.173037084308155</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.958600150136801</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293">
-        <v>3.18932075912547</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.587597790878393</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294">
-        <v>2.5730219720536458</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.812673285949464</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.0052859980964699</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.727513045914634</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296">
-        <v>2.114234906255696</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.311517086394824</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297">
-        <v>3.0786449619296068</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.296205728967278</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298">
-        <v>2.3484100369306571</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.730816886956699</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299">
-        <v>4.3705509962623381</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.354380826876084</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300">
-        <v>3.866210081378247</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.358577190079036</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301">
-        <v>2.1367200853932782</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.815486195738927</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.270873225753492</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.711265472722511</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.423929021504756</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.384508411621104</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.704261210962644</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.842104823619353</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305">
-        <v>2.622851952844818</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.049282091965138</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.049788309258922</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.322965488325714</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4.1856530965780854</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.278675491254418</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308">
-        <v>3.8852909823576178</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.742713711863985</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309">
-        <v>3.9136789021944791</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.159884836318626</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310">
-        <v>2.8266455072255909</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.373667644290864</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
       <c r="B311">
-        <v>2.371509395390222</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.71104128598679</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
       <c r="B312">
-        <v>3.812650358256894</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.629053051118412</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313">
-        <v>3.4384181092379649</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.455155098899622</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314">
-        <v>4.9814787874951012</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.819292353458606</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
       <c r="B315">
-        <v>4.2986661813803719</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.00287321381224</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.2963998897714131</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.734718525154823</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317">
-        <v>4.4110974646317516</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.277403741418321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.3841353652238291</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.649387661913962</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
       <c r="B319">
-        <v>3.858879755062179</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.055213605375357</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320">
-        <v>3.6538518352169369</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.102191361967532</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321">
-        <v>2.0754243275796922</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.449919903811336</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
       <c r="B322">
-        <v>2.7797161531931782</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.084315676508342</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4.4567303594967784</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.631873049448199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.061193228882116</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.772055420970148</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325">
-        <v>4.0943886917450758</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.245912618562504</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
       <c r="B326">
-        <v>4.0625473697006154</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.788528815781808</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4.8529670168837047</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.895656414662405</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.439339789656759</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.59639111888421</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
       <c r="B329">
-        <v>3.624477223467033</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.769902192462053</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
       <c r="B330">
-        <v>3.2142842424042319</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.976470377238464</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
       <c r="B331">
-        <v>3.06451216392046</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.77094799257203</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
       <c r="B332">
-        <v>3.0348959183475208</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.933149840388481</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
       <c r="B333">
-        <v>4.5991274198770853</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.614659652547296</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
       <c r="B334">
-        <v>2.0432269460729282</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.231371432146579</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
       <c r="B335">
-        <v>3.4759884780636421</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.166458719133075</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4.3757698363064019</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.879929024758454</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
       <c r="B337">
-        <v>1.214902322955377</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.222912091828909</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
       <c r="B338">
-        <v>3.8189470592882739</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.963364574217229</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339">
-        <v>3.7604445578478169</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.154317765525095</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340">
-        <v>2.6168983391452429</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.278135128523777</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
       <c r="B341">
-        <v>4.6646912509142187</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.446891991399729</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342">
-        <v>4.6832064941078357</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.151187718046579</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
       <c r="B343">
-        <v>2.2072073889675479</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.820673956988953</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
       <c r="B344">
-        <v>2.0380753407914569</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.946076260868571</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
       <c r="B345">
-        <v>3.942451504098476</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.663837567004102</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
       <c r="B346">
-        <v>2.18700562574177</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.85928851685306</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.835091016124484</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.800491716254396</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
       <c r="B348">
-        <v>4.2254475322287242</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.563901477285416</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.7763569122187219</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.697680444043161</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.8528810384578991</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.170980871158436</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
       <c r="B351">
-        <v>1.1857787193117419</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.713123720440566</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
       <c r="B352">
-        <v>2.7601129618722098</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.690163762574882</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4.2825997875432629</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.850974526044395</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
       <c r="B354">
-        <v>4.7327956709649914</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.515816379071997</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355">
-        <v>2.4075197641424628</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.702073088610056</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4.4232898365902074</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.250586521413895</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.5734117464512709</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.950246679736353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4.9561286615532438</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.178848741116557</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.577080607268192</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.673118593212577</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
       <c r="B360">
-        <v>2.8035206301673439</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.565551579547199</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
       <c r="B361">
-        <v>4.2005421303647958</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.197868289792796</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
       <c r="B362">
-        <v>3.561944103793675</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.373966210200325</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
       <c r="B363">
-        <v>3.5701342680738581</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.629434118848902</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
       <c r="B364">
-        <v>1.403052337253204</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.072950476491842</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
       <c r="B365">
-        <v>3.0372581113763371</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.557200816388168</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
       <c r="B366">
-        <v>3.2457187407372099</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.243577374786757</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
       <c r="B367">
-        <v>4.4728795321029029</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.501443580300484</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
       <c r="B368">
-        <v>3.3214820220991759</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.879869730799522</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
       <c r="B369">
-        <v>3.2803846957015752</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.211984201397521</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
       <c r="B370">
-        <v>2.945290134604003</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.425139160089092</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4.604563935222739</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.400638341688521</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
       <c r="B372">
-        <v>3.434759526132944</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.665448277122179</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4.2613358927916734</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.823696060223654</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
       <c r="B374">
-        <v>3.1066222681925151</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.042530427666149</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
       <c r="B375">
-        <v>4.2047721249587227</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.932294912028545</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
       <c r="B376">
-        <v>2.555153031484493</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.971104801555615</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
       <c r="B377">
-        <v>3.145065133787543</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.329285840458803</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
       <c r="B378">
-        <v>4.6451584894284803</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.080102534324903</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
       <c r="B379">
-        <v>4.0437924851538503</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.612262413038122</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
       <c r="B380">
-        <v>3.1319885074366778</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.355910449802761</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
       <c r="B381">
-        <v>4.2771609024599151</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.013806175346768</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1.5490766691040381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.191082431287006</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
       <c r="B383">
-        <v>2.795383561787296</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.505099358735172</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
       <c r="B384">
-        <v>3.7179707801258779</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.05243106075452</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
       <c r="B385">
-        <v>2.9653671668241088</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.149098694661249</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
       <c r="B386">
-        <v>3.5977995501298961</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.690663096463432</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
       <c r="B387">
-        <v>4.6054626129208733</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.121958186013268</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
       <c r="B388">
-        <v>2.0727986644222698</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.86288474525537</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.7308212843365509</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.926377959119653</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
       <c r="B390">
-        <v>3.3922093417305468</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.091944569942118</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
       <c r="B391">
-        <v>3.024622590119983</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.50185025377735</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
       <c r="B392">
-        <v>4.6469115621723631</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.465558475362235</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4.6355922117013826</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.192134306416434</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
       <c r="B394">
-        <v>4.7788029538867303</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.045054864628185</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
       <c r="B395">
-        <v>4.6836731675433256</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.1570123972537</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
       <c r="B396">
-        <v>2.4390754690939449</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.831297763129912</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
       <c r="B397">
-        <v>2.8081999324530189</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.057416466824594</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398">
-        <v>2.8753499293299138</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.890701602466002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
       <c r="B399">
-        <v>3.63667680666435</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.417529645188322</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
       <c r="B400">
-        <v>3.066469339498672</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.873684321017348</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401">
-        <v>4.0959905801875021</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.893051929302304</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402">
-        <v>1.229989456999006</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.2625140900151</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
       <c r="B403">
-        <v>3.097916574595188</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.460350329122956</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404">
-        <v>2.235344560178147</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.56294710568055</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405">
-        <v>2.2748997618886122</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.851942447037829</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406">
-        <v>3.6600659064511878</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.155632554758994</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
       <c r="B407">
-        <v>3.0912104655049539</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.939866485359076</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
       <c r="B408">
-        <v>2.2100462411183019</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.676144484189076</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
       <c r="B409">
-        <v>2.9233383576933978</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.916547612039228</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
       <c r="B410">
-        <v>4.0084907925228421</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.715234929598886</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
       <c r="B411">
-        <v>3.3906736462125582</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.68539611424873</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
       <c r="B412">
-        <v>4.8437305798756629</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.873169849221486</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
       <c r="B413">
-        <v>4.9019102572379749</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.114383271280677</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414">
-        <v>2.0067849734437249</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.550517323692093</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
       <c r="B415">
-        <v>4.4701395263094099</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.4282310034512</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
       <c r="B416">
-        <v>3.6970056414953461</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.01642324018566</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
       <c r="B417">
-        <v>3.242370206463403</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.931273293581134</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
       <c r="B418">
-        <v>2.2171862598924719</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.301241953521471</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="B419">
-        <v>4.8556918760455172</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.332707275698215</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
       <c r="B420">
-        <v>2.422876676556923</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.285752826677253</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.112713037350056</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.165729670435947</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422">
-        <v>1.5303635680284491</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.256124699497722</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
       <c r="B423">
-        <v>2.6660321712445572</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.566213372051189</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.694227598825685</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.031855626842393</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
       <c r="B425">
-        <v>1.960089012719229</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.241033925898638</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
       <c r="B426">
-        <v>2.146903978940943</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.059381755979067</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4.8418980586380123</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.475695051650299</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3.865264161622072</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.928478214600053</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
       <c r="B429">
-        <v>2.5477322936887199</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.400932478043792</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.137033819422224</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.367723977564262</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
       <c r="B431">
-        <v>4.3929667283731959</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.489992173887653</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3.8197596225384269</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.5468212988854</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
       <c r="B433">
-        <v>3.2497528483408531</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.284731871423115</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
       <c r="B434">
-        <v>1.0239759443948191</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.804981832025963</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
       <c r="B435">
-        <v>1.03597669863957</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.763913027563593</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
       <c r="B436">
-        <v>1.688111540290508</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.626110622580203</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
       <c r="B437">
-        <v>3.775436010089706</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.86058272742477</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
       <c r="B438">
-        <v>4.0805022202267862</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.898116766900781</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
       <c r="B439">
-        <v>3.988631348474478</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.493287037563475</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
       <c r="B440">
-        <v>3.2617343456963122</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.129124523009638</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
       <c r="B441">
-        <v>1.886648084876315</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.722241924352303</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
       <c r="B442">
-        <v>3.4967752867721189</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.329451983711707</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
       <c r="B443">
-        <v>2.9319623122150791</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.917808482439079</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
       <c r="B444">
-        <v>2.183037026757694</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.87428365518215</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
       <c r="B445">
-        <v>2.3623515393883618</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.05121026082311</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
       <c r="B446">
-        <v>3.7043516860988408</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.818892323016863</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
       <c r="B447">
-        <v>1.5811628326644751</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.561268237605</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
       <c r="B448">
-        <v>4.3679916264978402</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.90242334260394</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
       <c r="B449">
-        <v>3.921864075954467</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.942018336699775</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
       <c r="B450">
-        <v>2.303158542664077</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.005612492796226</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
       <c r="B451">
-        <v>4.1573749018241291</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.93943983441039</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
       <c r="B452">
-        <v>1.962166510800893</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.115156090930586</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
       <c r="B453">
-        <v>3.9199885612988541</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.989599381150756</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
       <c r="B454">
-        <v>2.926204168021254</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.851617459563241</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
       <c r="B455">
-        <v>2.3142000942048462</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.689911331812713</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
       <c r="B456">
-        <v>2.4909858809516079</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.296657006251292</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
       <c r="B457">
-        <v>3.9009216502657118</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.103615064222068</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
       <c r="B458">
-        <v>3.3408972374853341</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.614976768844575</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
       <c r="B459">
-        <v>3.2616205451563931</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.895189282379618</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
       <c r="B460">
-        <v>3.702581518986956</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.690686495529924</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
       <c r="B461">
-        <v>3.9409385441320488</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.212191065710209</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
       <c r="B462">
-        <v>2.6791571054803121</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.934150347927322</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
       <c r="B463">
-        <v>3.2867472328219072</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.852278015533705</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4.8521221501953509</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.654167375376639</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
       <c r="B465">
-        <v>1.213242650902139</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.523165594290684</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466">
-        <v>3.8943426205719902</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.094522546953347</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467">
-        <v>3.69023513446637</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.329151613535671</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
       <c r="B468">
-        <v>1.830728276759559</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.135077091474003</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
       <c r="B469">
-        <v>2.1630062641395171</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.866367392856442</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470">
-        <v>1.605955693780478</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.813353566503647</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471">
-        <v>3.9736020813713591</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.977934328084149</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
       <c r="B472">
-        <v>4.3645328434405917</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.242513644932237</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
       <c r="B473">
-        <v>4.4824060287296872</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.704907635693786</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
       <c r="B474">
-        <v>2.2041212077990071</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.368698558250758</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
       <c r="B475">
-        <v>1.5112801164605341</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.832894798124311</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
       <c r="B476">
-        <v>1.943627210087169</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.669020520031195</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
       <c r="B477">
-        <v>2.6889134132882728</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.791554118850646</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4.8827910000312222</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.961516600966514</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
       <c r="B479">
-        <v>2.6030382070434102</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.386629180741616</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
       <c r="B480">
-        <v>4.333456674925749</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.693533187397002</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
       <c r="B481">
-        <v>3.7935934621842891</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.26217979536591</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
       <c r="B482">
-        <v>3.6198672658326339</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.111555573081089</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
       <c r="B483">
-        <v>1.085250357209709</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.720103035707031</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
       <c r="B484">
-        <v>3.5534989237132542</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.302148660436041</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
       <c r="B485">
-        <v>2.6778308885758682</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.362240686265903</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
       <c r="B486">
-        <v>2.7016378472474871</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.883444815329573</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
       <c r="B487">
-        <v>4.2821863994767293</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.328583938524544</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
       <c r="B488">
-        <v>4.7115447254256733</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.521684578058389</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
       <c r="B489">
-        <v>3.7878817209368911</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.739525903810365</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
       <c r="B490">
-        <v>2.5165825192520539</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.667963360809141</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
       <c r="B491">
-        <v>3.7117369309524402</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.712369521540582</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
       <c r="B492">
-        <v>2.3107050122179031</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.198123746032909</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
       <c r="B493">
-        <v>3.41736999353013</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.384075122339585</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494">
-        <v>2.186258483319393</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.592552898751092</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
       <c r="B495">
-        <v>4.4409529727632329</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.597054265801258</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
       <c r="B496">
-        <v>3.1271555661607762</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.989942861238406</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
       <c r="B497">
-        <v>2.720372623763978</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.731471597665573</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
       <c r="B498">
-        <v>2.7461857758367731</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.050502162553006</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
       <c r="B499">
-        <v>2.6680045482405639</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.315350963213698</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
       <c r="B500">
-        <v>3.627522297816308</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.353685827811923</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
       <c r="B501">
-        <v>1.543460946271757</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.300246067552958</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502">
-        <v>3.2753857930632599</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.112511383475375</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
       <c r="B503">
-        <v>3.6204758160562962</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.52692979299344</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
       <c r="B504">
-        <v>4.1916415255395139</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.672296887703327</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505">
-        <v>2.6101160717965919</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.498741326773803</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506">
-        <v>2.1534225152226179</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.814245669277772</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507">
-        <v>3.7001371058821011</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.391438948596305</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508">
-        <v>3.7512382129020341</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.990900723061861</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509">
-        <v>2.1351618781295709</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.087106267905379</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510">
-        <v>4.2459697393864806</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.61160708160602</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511">
-        <v>4.2871788588459712</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.359999776284571</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512">
-        <v>3.645909249233962</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.725854271723435</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>3.2483658305683938</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.263594972974952</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>4.1100447597282477</v>
+        <v>4.968510709756092</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>4.339142123526268</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>4.169668019902955</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>4.601552190396914</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>4.446070872462806</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>4.436632676019963</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>4.937368247483185</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>4.992481120419645</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>4.022189138033635</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>4.820171979753368</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>4.120979577422233</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>4.419702325126799</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>4.799177958083924</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>4.195563007861288</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>4.338439973559635</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>4.87239720036446</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>4.750067555552123</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>4.111753095440869</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>4.685017759897657</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>4.718937104437174</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>4.003902232950622</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>4.341918271865301</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>4.212596308340204</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>4.656273793851981</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>4.820979715001586</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>4.482060343898128</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>4.030726618348483</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>4.067953780283265</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>4.00533669435749</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>4.20559803264877</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>4.071481924262577</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>4.702195605031486</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>4.295117927929371</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>4.164973329808024</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>4.502636683353647</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>4.532440728431582</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>4.712091385718157</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>4.179136276873447</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>4.76017598173912</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>4.756517412916324</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>4.362339127351549</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>4.623506940366759</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>4.680677627685371</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>4.445973061235673</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>4.356970989642254</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>4.424798211066809</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>4.525670793385388</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>4.805061246189013</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>4.351993593596502</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>4.636815310705564</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>4.637747010171515</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>4.981561500516978</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>4.438780770313051</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>4.141759043342839</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>4.532056361886012</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>4.748200276815287</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>4.289978926965621</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>4.754210317297721</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>4.154902689839163</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>4.687229221877387</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>4.130683580236556</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>4.008804593886358</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>4.500355418822771</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>4.829035792910355</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>4.717761165977866</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>4.01325778306947</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>4.928244100987229</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>4.628821736122419</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>4.037658005839767</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>4.677659547866264</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>4.231619863173851</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>4.388766599578778</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>4.47272679947479</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>4.951125275532342</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>4.370787472290607</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>4.249915983080795</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>4.277820024568266</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>4.761611418732853</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>4.660372507863773</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>4.085801011408774</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>4.80351344174584</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>4.344915364428495</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>4.735793394556091</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>4.165881095428329</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>4.514710345075049</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>4.933212049433275</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>4.006497379717002</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>4.287639503916138</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>4.670059382092505</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>4.87573707882484</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>4.223230191628948</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>4.367863406673548</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>4.745673004642633</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>4.849409046558837</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>4.5149159575741</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>4.647651553132702</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>4.159698586989556</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>4.023259667621167</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>4.052715058137073</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>4.166987253919501</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>4.975615152315685</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>4.400935101238352</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>4.216354977545572</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>4.805804526386309</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>4.658352265251522</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>4.430835063768224</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>4.004206550526467</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>4.543130479797505</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>4.712281180322889</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>4.473924002954558</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>4.942428105208994</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>4.434718506400347</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>4.598159076676438</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>4.64166377791254</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>4.596435372924971</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>4.999309080139215</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>4.953502237080111</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>4.128530626683769</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>4.750967659138196</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>4.746665740767287</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>4.513011294980409</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>4.323029033390434</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>4.737336836891686</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>4.447945852881968</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>4.223565896891118</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>4.535706139013254</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>4.1853635903486</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>4.619334810825307</v>
       </c>
     </row>
   </sheetData>
